--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1057150.50023397</v>
+        <v>1015326.718564962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.17354161800006</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,19 +709,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>18.40882703545771</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>22.809790258151</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.1075626506222</v>
+        <v>132.4176969755833</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>155.6861271668068</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>54.9976219884068</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>160.288882744053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.347200282567</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>77.50776027739582</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>26.8689207101643</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>302.3640166638771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>22.91471389864694</v>
+        <v>61.12808787351305</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884923</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>43.12240526463283</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.14488884397937</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>364.9170952444118</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1928,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>91.68674581998047</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1979,7 +1979,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>155.3339469632455</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>149.8134234192865</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>54.44663919424247</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>327.2582249848166</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>138.9596994289416</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>106.2387529750474</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>204.422319804733</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.9705324835873</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>110.9705324835878</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.685560910043071</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>29.68090889014734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>113.1507170764644</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>344.6121853794187</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.426245492998987</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>15.69638162143981</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.3145911835822</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>85.2101750533393</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>176.5764031261705</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>296.5423059124888</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>29.38391736390425</v>
+        <v>60.11425531312958</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>149.8134234192865</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>50.31901597580516</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>171.7982676092357</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S33" t="n">
-        <v>99.03946631682496</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>183.1212231891129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>43.3560697996877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>204.0762929799122</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>163.5736621411588</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>27.40777827085461</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>187.9216174196134</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>162.3083647370542</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>110.4659433140482</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>139.0040889808856</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426666</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>167.0918869329224</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>4.812045700447308</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -3681,7 +3681,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>85.01043530101143</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>220.2877784240656</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>399.5599846932183</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,10 +3824,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>147.6938511001825</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,10 +3836,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>7.470667384471858</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.54215419659351</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>169.4333667739966</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>343.6487821022736</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -4036,16 +4036,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>275.197063589395</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>94.06259899123576</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4115,7 +4115,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>225.8762544068406</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>172.2586065514029</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>49.20819938994855</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.2549444941228</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="C3" t="n">
-        <v>346.8019152129958</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D3" t="n">
-        <v>197.8675055517446</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E3" t="n">
-        <v>38.63005054628906</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>941.0169633306857</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>941.0169633306857</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>941.0169633306857</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>733.2566645657319</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>749.627473042513</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>749.627473042513</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.2693145670932</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>427.4846515871612</v>
+        <v>830.3019060403501</v>
       </c>
       <c r="X6" t="n">
-        <v>427.4846515871612</v>
+        <v>622.4504058348173</v>
       </c>
       <c r="Y6" t="n">
-        <v>427.4846515871612</v>
+        <v>622.4504058348173</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W8" t="n">
-        <v>730.8505943024719</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X8" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>343.4227147053767</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1796.242019650364</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C11" t="n">
-        <v>1427.279502709952</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D11" t="n">
-        <v>1427.279502709952</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2214.823123467602</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2214.823123467602</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1961.03670135247</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1961.03670135247</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1961.03670135247</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1961.03670135247</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.841859714486</v>
+        <v>1570.897369376658</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007834</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5147,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5202,37 +5202,37 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826211</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U13" t="n">
-        <v>46.89499644164432</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V13" t="n">
         <v>46.89499644164432</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1785.545201316702</v>
+        <v>1131.612145264426</v>
       </c>
       <c r="C14" t="n">
-        <v>1785.545201316702</v>
+        <v>762.6496283240144</v>
       </c>
       <c r="D14" t="n">
-        <v>1427.279502709952</v>
+        <v>404.3839297172639</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.491250111708</v>
+        <v>404.3839297172639</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>404.3839297172639</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
@@ -5308,22 +5308,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967083</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V14" t="n">
-        <v>2090.963399967083</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.963399967083</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="X14" t="n">
-        <v>2090.963399967083</v>
+        <v>1518.211985328548</v>
       </c>
       <c r="Y14" t="n">
-        <v>1785.545201316702</v>
+        <v>1518.211985328548</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5381,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2321.603646427017</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="T15" t="n">
-        <v>2122.060948481047</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U15" t="n">
-        <v>1893.880484135205</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V15" t="n">
-        <v>1658.728375903462</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W15" t="n">
-        <v>1404.49101917526</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X15" t="n">
-        <v>1196.639518969728</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y15" t="n">
-        <v>988.8792202047736</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743507</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1581.144731845324</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="C17" t="n">
-        <v>1212.182214904913</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D17" t="n">
-        <v>853.9165162981622</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E17" t="n">
-        <v>468.1282636999179</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F17" t="n">
-        <v>57.14235891031035</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
         <v>46.89499644164432</v>
@@ -5515,25 +5515,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
@@ -5542,25 +5542,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="X17" t="n">
-        <v>1971.284063821136</v>
+        <v>1241.905935998693</v>
       </c>
       <c r="Y17" t="n">
-        <v>1581.144731845324</v>
+        <v>851.7666040228812</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551149</v>
+        <v>693.4102525704071</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739879</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127367</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072812</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007834</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
         <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5627,19 +5627,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1766.626853520906</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673871</v>
+        <v>1531.474745289163</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1277.237388560962</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401369</v>
+        <v>1069.385888355429</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.348101975183</v>
+        <v>861.6255895904751</v>
       </c>
     </row>
     <row r="19">
@@ -5676,49 +5676,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424308</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>101.8916016883539</v>
+        <v>228.543461271884</v>
       </c>
       <c r="V19" t="n">
-        <v>101.8916016883539</v>
+        <v>228.543461271884</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.394979505922</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="C20" t="n">
-        <v>823.4324625655099</v>
+        <v>1146.495209163961</v>
       </c>
       <c r="D20" t="n">
-        <v>465.1667639587595</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E20" t="n">
-        <v>465.1667639587595</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F20" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5752,13 +5752,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5779,25 +5779,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2130.012944234739</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1876.226522119606</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V20" t="n">
-        <v>1545.163634776036</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W20" t="n">
-        <v>1192.394979505922</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X20" t="n">
-        <v>1192.394979505922</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1192.394979505922</v>
+        <v>1477.059072784988</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>783.3663200545602</v>
+        <v>704.2697763643505</v>
       </c>
       <c r="C21" t="n">
-        <v>608.9132907734332</v>
+        <v>529.8167470832235</v>
       </c>
       <c r="D21" t="n">
-        <v>459.978881112182</v>
+        <v>380.8823374219722</v>
       </c>
       <c r="E21" t="n">
-        <v>300.7414261067265</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F21" t="n">
-        <v>154.2068681336114</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>273.126860749845</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583288</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>2084.763385350902</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1856.582921005059</v>
+        <v>1777.48637731485</v>
       </c>
       <c r="V21" t="n">
-        <v>1621.430812773317</v>
+        <v>1542.334269083107</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.193456045115</v>
+        <v>1288.096912354905</v>
       </c>
       <c r="X21" t="n">
-        <v>1159.341955839582</v>
+        <v>1080.245412149372</v>
       </c>
       <c r="Y21" t="n">
-        <v>951.5816570746283</v>
+        <v>872.4851133844186</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>2232.658375129097</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>2004.66882423108</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y22" t="n">
-        <v>1783.87624508755</v>
+        <v>158.9864433947628</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1629.990014811991</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C23" t="n">
-        <v>1629.990014811991</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D23" t="n">
-        <v>1271.724316205241</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E23" t="n">
-        <v>885.9360636069964</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>474.9501588173889</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>56.67839130027369</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.67839130027369</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2314.769106031562</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2314.769106031562</v>
       </c>
       <c r="T23" t="n">
-        <v>2270.376276991246</v>
+        <v>2314.769106031562</v>
       </c>
       <c r="U23" t="n">
-        <v>2016.589854876113</v>
+        <v>2314.769106031562</v>
       </c>
       <c r="V23" t="n">
-        <v>2016.589854876113</v>
+        <v>2314.769106031562</v>
       </c>
       <c r="W23" t="n">
-        <v>2016.589854876113</v>
+        <v>1962.000450761448</v>
       </c>
       <c r="X23" t="n">
-        <v>2016.589854876113</v>
+        <v>1588.534692500368</v>
       </c>
       <c r="Y23" t="n">
-        <v>2016.589854876113</v>
+        <v>1588.534692500368</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.3481019751835</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>615.8950726940565</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>466.9606630328052</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>307.7232080273497</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>161.1886500542347</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
         <v>46.89499644164432</v>
@@ -6068,7 +6068,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
         <v>273.1268607498447</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="C25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="D25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="E25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="H25" t="n">
         <v>46.89499644164432</v>
@@ -6180,19 +6180,19 @@
         <v>379.8701515943957</v>
       </c>
       <c r="U25" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="W25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="X25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.1856633885088</v>
+        <v>90.68900634031877</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>457.8809012312519</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C26" t="n">
-        <v>457.8809012312519</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D26" t="n">
-        <v>457.8809012312519</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="E26" t="n">
-        <v>457.8809012312519</v>
+        <v>813.2598805036268</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6253,25 +6253,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2159.103956196961</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1905.317534081828</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1574.254646738258</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1221.485991468144</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>848.0202332070636</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y26" t="n">
-        <v>457.8809012312519</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>639.676304948774</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C27" t="n">
         <v>639.676304948774</v>
@@ -6305,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6347,10 +6347,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y27" t="n">
-        <v>807.8916419688421</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>215.8311793695513</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6408,28 +6408,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>521.6976895440483</v>
       </c>
       <c r="Y28" t="n">
-        <v>397.479644199791</v>
+        <v>521.6976895440483</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>465.1667639587595</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="C29" t="n">
-        <v>465.1667639587595</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="D29" t="n">
-        <v>465.1667639587595</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6463,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6493,22 +6493,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2166.389818924468</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U29" t="n">
-        <v>1912.603396809336</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V29" t="n">
-        <v>1581.540509465765</v>
+        <v>1571.442957858774</v>
       </c>
       <c r="W29" t="n">
-        <v>1228.771854195651</v>
+        <v>1571.442957858774</v>
       </c>
       <c r="X29" t="n">
-        <v>855.3060959345712</v>
+        <v>1571.442957858774</v>
       </c>
       <c r="Y29" t="n">
-        <v>465.1667639587595</v>
+        <v>1181.303625882962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>814.129334229901</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C30" t="n">
-        <v>639.676304948774</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D30" t="n">
-        <v>490.7418952875228</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E30" t="n">
-        <v>331.5044402820673</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F30" t="n">
-        <v>184.9698823089523</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6542,7 +6542,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
         <v>121.6684232076319</v>
@@ -6569,25 +6569,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.069097472212</v>
+        <v>2284.028352068954</v>
       </c>
       <c r="T30" t="n">
-        <v>2115.526399526243</v>
+        <v>2084.485654122985</v>
       </c>
       <c r="U30" t="n">
-        <v>1887.3459351804</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V30" t="n">
-        <v>1652.193826948657</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W30" t="n">
-        <v>1397.956470220456</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X30" t="n">
-        <v>1190.104970014923</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y30" t="n">
-        <v>982.344671249969</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.221686764156</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6651,22 +6651,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1490.260073913009</v>
+        <v>790.948947646639</v>
       </c>
       <c r="C32" t="n">
-        <v>1121.297556972598</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D32" t="n">
-        <v>763.0318583658473</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E32" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F32" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2293.922533217767</v>
       </c>
       <c r="S32" t="n">
-        <v>2270.376276991246</v>
+        <v>2293.922533217767</v>
       </c>
       <c r="T32" t="n">
-        <v>2050.393517622824</v>
+        <v>2293.922533217767</v>
       </c>
       <c r="U32" t="n">
-        <v>2050.393517622824</v>
+        <v>2293.922533217767</v>
       </c>
       <c r="V32" t="n">
-        <v>2050.393517622824</v>
+        <v>2293.922533217767</v>
       </c>
       <c r="W32" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.153877947652</v>
       </c>
       <c r="X32" t="n">
-        <v>2050.393517622824</v>
+        <v>1567.688119686572</v>
       </c>
       <c r="Y32" t="n">
-        <v>1876.859913977131</v>
+        <v>1177.548787710761</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>743.7701938734157</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>569.3171645922887</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>420.3827549310374</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>261.1452999255819</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6782,13 +6782,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
         <v>1637.630816213677</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S33" t="n">
-        <v>2244.709957115726</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T33" t="n">
-        <v>2045.167259169757</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>1816.986794823915</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1581.834686592172</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1327.59732986397</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1119.745829658438</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>911.9855308934837</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E34" t="n">
         <v>46.89499644164432</v>
@@ -6888,22 +6888,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>90.68900634031877</v>
+        <v>422.7976409220548</v>
       </c>
       <c r="V34" t="n">
-        <v>90.68900634031877</v>
+        <v>422.7976409220548</v>
       </c>
       <c r="W34" t="n">
-        <v>90.68900634031877</v>
+        <v>422.7976409220548</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>630.3926853134653</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="C35" t="n">
-        <v>630.3926853134653</v>
+        <v>1029.570132242189</v>
       </c>
       <c r="D35" t="n">
-        <v>630.3926853134653</v>
+        <v>671.3044336354385</v>
       </c>
       <c r="E35" t="n">
-        <v>630.3926853134653</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F35" t="n">
-        <v>630.3926853134653</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
-        <v>212.1209177963502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6943,7 +6943,7 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6967,22 +6967,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V35" t="n">
-        <v>1759.900512623513</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W35" t="n">
-        <v>1407.131857353399</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X35" t="n">
-        <v>1407.131857353399</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="Y35" t="n">
-        <v>1016.992525377587</v>
+        <v>1398.532649182601</v>
       </c>
     </row>
     <row r="36">
@@ -7001,10 +7001,10 @@
         <v>359.1890647980821</v>
       </c>
       <c r="E36" t="n">
-        <v>331.5044402820673</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F36" t="n">
-        <v>184.9698823089523</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G36" t="n">
         <v>46.89499644164432</v>
@@ -7019,22 +7019,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
         <v>46.89499644164432</v>
@@ -7119,28 +7119,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W37" t="n">
-        <v>443.8207302675686</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1950.55522927932</v>
+        <v>1601.84183483629</v>
       </c>
       <c r="C38" t="n">
-        <v>1950.55522927932</v>
+        <v>1232.879317895879</v>
       </c>
       <c r="D38" t="n">
-        <v>1592.28953067257</v>
+        <v>874.6136192891283</v>
       </c>
       <c r="E38" t="n">
-        <v>1206.501278074326</v>
+        <v>488.8253666908841</v>
       </c>
       <c r="F38" t="n">
-        <v>795.5153732847182</v>
+        <v>488.8253666908841</v>
       </c>
       <c r="G38" t="n">
-        <v>377.243605767603</v>
+        <v>488.8253666908841</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>158.4767573649254</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7204,22 +7204,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2204.341651394453</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1950.55522927932</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1950.55522927932</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>1950.55522927932</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X38" t="n">
-        <v>1950.55522927932</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y38" t="n">
-        <v>1950.55522927932</v>
+        <v>1601.84183483629</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5044402820673</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7280,25 +7280,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="F40" t="n">
-        <v>460.8786259383999</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G40" t="n">
-        <v>291.7406856849093</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H40" t="n">
-        <v>132.7641230083225</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7362,22 +7362,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.544891781203</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C41" t="n">
-        <v>1194.544891781203</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D41" t="n">
-        <v>836.2791931744525</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E41" t="n">
-        <v>450.4909405762083</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7414,13 +7414,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.144731845325</v>
+        <v>1183.366862147115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>829.8930637200692</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C42" t="n">
-        <v>655.4400344389422</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D42" t="n">
-        <v>655.4400344389422</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>339.050568953251</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>192.516010980136</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>54.44112511282802</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7520,22 +7520,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.1084007401373</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2149.407627422406</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C43" t="n">
-        <v>2149.407627422406</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>2149.407627422406</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>2149.407627422406</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>2149.407627422406</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>2149.407627422406</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="X43" t="n">
-        <v>2149.407627422406</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="Y43" t="n">
-        <v>2149.407627422406</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.940921346611</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C44" t="n">
-        <v>1261.940921346611</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D44" t="n">
-        <v>1261.940921346611</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
         <v>876.152668748367</v>
@@ -7651,13 +7651,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>1870.980640598662</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V44" t="n">
-        <v>1539.917753255091</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W44" t="n">
-        <v>1261.940921346611</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.940921346611</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.940921346611</v>
+        <v>1223.272650669855</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D45" t="n">
-        <v>352.6670094202149</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E45" t="n">
-        <v>193.4295544147594</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F45" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1688.868827056222</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.8715591182311</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="C46" t="n">
-        <v>205.8715591182311</v>
+        <v>243.4901958485936</v>
       </c>
       <c r="D46" t="n">
-        <v>205.8715591182311</v>
+        <v>243.4901958485936</v>
       </c>
       <c r="E46" t="n">
-        <v>205.8715591182311</v>
+        <v>243.4901958485936</v>
       </c>
       <c r="F46" t="n">
-        <v>205.8715591182311</v>
+        <v>96.60024835068327</v>
       </c>
       <c r="G46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7827,31 +7827,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T46" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U46" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V46" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="W46" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="X46" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>254.8897585970533</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696951</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10430,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392485</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392485</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>126.365539744997</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>225.9490559120006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>78.2722373409284</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>387.2201291317797</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.87392199217652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>136.7065056498033</v>
+        <v>98.49313167493716</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.936681964082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>95.95592036425872</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23706,7 +23706,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>403.9441609979646</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.814005434057265</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>53.38246657340341</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>70.56471273913883</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,10 +23910,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704632</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>136.4759103822496</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>232.0763591423485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>55.47561667866393</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>78.82323234579584</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>30.45538403358744</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>21.47633989765134</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>68.86144769835001</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,10 +24147,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>175.5524658530032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>153.9996346396641</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>43.94890074991378</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24262,16 +24262,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.54341993217044</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>67.91328774553541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>114.0307272501332</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>62.26386036229275</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24493,22 +24493,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>215.3566862817385</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>190.0766035820376</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.36810459372214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24648,7 +24648,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>67.60418052282603</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24733,19 +24733,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>41.20652864856694</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>31.20995255764609</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24809,7 +24809,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>130.237302184546</v>
+        <v>99.50696423532062</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>17.43339767934131</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>42.59243951281445</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24891,7 +24891,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>23.31079366425597</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.4396710468179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25016,7 +25016,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S33" t="n">
-        <v>60.58175323162524</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,10 +25128,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>103.1681106124232</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>182.3535855893494</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>177.8540770923496</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>163.4714610915403</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25207,22 +25207,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>130.2373021845463</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,13 +25359,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>37.69782020388197</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>124.2146335995368</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>53.21925223565893</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>78.77884279385185</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>30.45538403358719</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>140.6090023224839</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.06789032788012</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25602,7 +25602,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>162.446063239415</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>7.316061048493111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>9.951229355218487</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.49313167493757</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>156.9044066543621</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>117.0896315625944</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>39.085059561207</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>74.04390512801797</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>53.38246657340299</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.924332742584681</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.573373630534348</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>118.2383614610071</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678104.6814094223</v>
+        <v>678104.6814094225</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678104.6814094228</v>
+        <v>678104.6814094225</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678104.6814094225</v>
+        <v>678104.6814094228</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678104.6814094223</v>
+        <v>678104.6814094228</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26328,34 +26328,34 @@
         <v>317251.3197170584</v>
       </c>
       <c r="G2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170583</v>
       </c>
       <c r="H2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="I2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="J2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="K2" t="n">
-        <v>317251.3197170586</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="L2" t="n">
-        <v>317251.3197170586</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="M2" t="n">
-        <v>317251.3197170586</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="N2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="O2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="P2" t="n">
         <v>317251.3197170584</v>
-      </c>
-      <c r="O2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="P2" t="n">
-        <v>317251.3197170586</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346065.6887052708</v>
+        <v>346065.6887052709</v>
       </c>
       <c r="C4" t="n">
         <v>346065.6887052709</v>
@@ -26441,13 +26441,13 @@
         <v>70484.80233744852</v>
       </c>
       <c r="J4" t="n">
-        <v>70484.80233744853</v>
+        <v>70484.80233744852</v>
       </c>
       <c r="K4" t="n">
-        <v>70484.80233744853</v>
+        <v>70484.80233744852</v>
       </c>
       <c r="L4" t="n">
-        <v>70484.80233744853</v>
+        <v>70484.80233744852</v>
       </c>
       <c r="M4" t="n">
         <v>70484.80233744852</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17508.67291798967</v>
+        <v>17508.67291798961</v>
       </c>
       <c r="C6" t="n">
+        <v>98278.10444953729</v>
+      </c>
+      <c r="D6" t="n">
         <v>98278.10444953741</v>
       </c>
-      <c r="D6" t="n">
-        <v>98278.10444953747</v>
-      </c>
       <c r="E6" t="n">
-        <v>-141067.5475247893</v>
+        <v>-148374.7867831857</v>
       </c>
       <c r="F6" t="n">
-        <v>204544.7952541634</v>
+        <v>197237.5559957671</v>
       </c>
       <c r="G6" t="n">
-        <v>204544.7952541634</v>
+        <v>197237.5559957669</v>
       </c>
       <c r="H6" t="n">
-        <v>204544.7952541634</v>
+        <v>197237.5559957672</v>
       </c>
       <c r="I6" t="n">
-        <v>204544.7952541634</v>
+        <v>197237.5559957672</v>
       </c>
       <c r="J6" t="n">
-        <v>141484.8526550572</v>
+        <v>134177.6133966608</v>
       </c>
       <c r="K6" t="n">
-        <v>204544.7952541635</v>
+        <v>197237.555995767</v>
       </c>
       <c r="L6" t="n">
-        <v>204544.7952541635</v>
+        <v>197237.5559957671</v>
       </c>
       <c r="M6" t="n">
-        <v>118526.2614340875</v>
+        <v>111219.022175691</v>
       </c>
       <c r="N6" t="n">
-        <v>204544.7952541633</v>
+        <v>197237.5559957671</v>
       </c>
       <c r="O6" t="n">
-        <v>204544.7952541633</v>
+        <v>197237.5559957669</v>
       </c>
       <c r="P6" t="n">
-        <v>204544.7952541635</v>
+        <v>197237.5559957671</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="H4" t="n">
         <v>586.1874555205541</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.7025041237114</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>126.6603853579262</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>209.9907968912743</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.58742051029745</v>
+        <v>119.2772861853364</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27791,13 +27791,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>337.3772419221205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>319.4393855107668</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>96.00885599411279</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K20" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M20" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N20" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O20" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L21" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K15" t="n">
-        <v>75.52871390503788</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N20" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>167.9114421664593</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36214,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36682,7 +36682,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37159,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37387,7 +37387,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
         <v>373.423817067563</v>
@@ -37797,7 +37797,7 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P41" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306801</v>
       </c>
       <c r="Q41" t="n">
         <v>121.0739155037674</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37879,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848623</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
